--- a/fichiers/conf/modele_marins.xlsx
+++ b/fichiers/conf/modele_marins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\analytiscout\fichiers\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AE97CE-7C60-4218-9AAC-AD9AED8CB259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D10CE6-3064-40C7-9567-7B36ABA66DE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="285" windowWidth="24495" windowHeight="13410" tabRatio="391" activeTab="1" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
+    <workbookView xWindow="1230" yWindow="495" windowWidth="25125" windowHeight="13410" tabRatio="391" activeTab="1" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Aide" sheetId="4" r:id="rId1"/>
@@ -149,15 +149,6 @@
     <t>Diplômes</t>
   </si>
   <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>CQ</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
     <t>${chef.formation.pe.datefin}</t>
   </si>
   <si>
@@ -201,6 +192,15 @@
   </si>
   <si>
     <t>Aide pour l'analyse des marins</t>
+  </si>
+  <si>
+    <t>Patron d'embarcation</t>
+  </si>
+  <si>
+    <t>Chef de quart</t>
+  </si>
+  <si>
+    <t>Chef de flottille</t>
   </si>
 </sst>
 </file>
@@ -1039,13 +1039,13 @@
   <sheetData>
     <row r="1" spans="1:1" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:1" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1095,7 +1095,13 @@
     <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
     <col min="8" max="8" width="3.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="2.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1117,7 +1123,7 @@
       <c r="N1" s="27"/>
       <c r="O1" s="28"/>
     </row>
-    <row r="2" spans="1:15" s="16" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="16" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1137,31 +1143,31 @@
         <v>19</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>22</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1187,22 +1193,22 @@
         <v>33</v>
       </c>
       <c r="I3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="O3" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1303,10 +1309,12 @@
     <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="3.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
     <col min="12" max="12" width="2.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -1325,7 +1333,7 @@
       <c r="N1" s="27"/>
       <c r="O1" s="28"/>
     </row>
-    <row r="2" spans="1:15" s="16" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="16" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1351,25 +1359,25 @@
         <v>22</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1396,22 +1404,22 @@
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/fichiers/conf/modele_marins.xlsx
+++ b/fichiers/conf/modele_marins.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\analytiscout\fichiers\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D10CE6-3064-40C7-9567-7B36ABA66DE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A65D2C4-5705-46A2-936A-9F9AB614C0C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="495" windowWidth="25125" windowHeight="13410" tabRatio="391" activeTab="1" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
+    <workbookView xWindow="1230" yWindow="495" windowWidth="26640" windowHeight="12690" tabRatio="391" activeTab="1" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Aide" sheetId="4" r:id="rId1"/>
-    <sheet name="Responsables" sheetId="8" r:id="rId2"/>
+    <sheet name="Responsables" sheetId="10" r:id="rId2"/>
     <sheet name="Jeunes" sheetId="1" r:id="rId3"/>
     <sheet name="Global" sheetId="5" r:id="rId4"/>
     <sheet name="Général" sheetId="6" r:id="rId5"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Code Adhérent</t>
   </si>
@@ -201,13 +201,16 @@
   </si>
   <si>
     <t>Chef de flottille</t>
+  </si>
+  <si>
+    <t>Identification</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +270,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -411,21 +422,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -444,13 +453,13 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1071,47 +1080,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DD699D-99AD-42D3-AEE3-462F57043644}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F404DD-266A-42AE-AC90-F8898EA0D59B}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="57.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
+    <row r="1" spans="1:15" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="21"/>
       <c r="I1" s="23" t="s">
         <v>34</v>
       </c>
@@ -1123,7 +1130,7 @@
       <c r="N1" s="27"/>
       <c r="O1" s="28"/>
     </row>
-    <row r="2" spans="1:15" s="16" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1157,16 +1164,16 @@
       <c r="K2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="20" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1192,6 +1199,7 @@
       <c r="G3" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="17" t="s">
         <v>36</v>
       </c>
@@ -1212,10 +1220,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O2" xr:uid="{F70DD6BD-0C4F-4663-BA20-A123405AFB9B}"/>
-  <mergeCells count="2">
+  <autoFilter ref="A2:O2" xr:uid="{E615BB03-CD6D-4FC2-91E6-8BFE1681963B}"/>
+  <mergeCells count="3">
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G65536">
     <cfRule type="beginsWith" dxfId="24" priority="1" stopIfTrue="1" operator="beginsWith" text="14">
@@ -1279,9 +1288,7 @@
       <formula>LEFT(G3,LEN("21"))="21"</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1301,7 +1308,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="57.28515625" style="1" customWidth="1"/>
@@ -1309,13 +1316,17 @@
     <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="3.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" customWidth="1"/>
     <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29"/>
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -1333,7 +1344,7 @@
       <c r="N1" s="27"/>
       <c r="O1" s="28"/>
     </row>
-    <row r="2" spans="1:15" s="16" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="16" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1367,16 +1378,16 @@
       <c r="K2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="20" t="s">
         <v>53</v>
       </c>
     </row>

--- a/fichiers/conf/modele_marins.xlsx
+++ b/fichiers/conf/modele_marins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\analytiscout\fichiers\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A65D2C4-5705-46A2-936A-9F9AB614C0C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2F744E-ED24-4C46-9645-26952BA32BE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="495" windowWidth="26640" windowHeight="12690" tabRatio="391" activeTab="1" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
+    <workbookView xWindow="855" yWindow="1065" windowWidth="24945" windowHeight="13740" tabRatio="391" activeTab="1" xr2:uid="{65826371-4A86-45E5-8D4B-7C8F7979A5BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Aide" sheetId="4" r:id="rId1"/>
@@ -467,7 +467,7 @@
     <cellStyle name="Filler1" xfId="1" xr:uid="{CF299C21-B143-458E-AE9E-A0A1BA0CBE68}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="52">
     <dxf>
       <font>
         <color theme="0"/>
@@ -515,6 +515,276 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1227,68 +1497,72 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G65536">
-    <cfRule type="beginsWith" dxfId="24" priority="1" stopIfTrue="1" operator="beginsWith" text="14">
+    <cfRule type="beginsWith" dxfId="51" priority="2" stopIfTrue="1" operator="beginsWith" text="14">
       <formula>LEFT(G3,LEN("14"))="14"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="23" priority="2" stopIfTrue="1" operator="beginsWith" text="6">
+    <cfRule type="beginsWith" dxfId="50" priority="3" stopIfTrue="1" operator="beginsWith" text="6">
       <formula>LEFT(G3,LEN("6"))="6"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="22" priority="3" stopIfTrue="1" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="49" priority="4" stopIfTrue="1" operator="beginsWith" text="5">
       <formula>LEFT(G3,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="21" priority="4" stopIfTrue="1" operator="beginsWith" text="4">
+    <cfRule type="beginsWith" dxfId="48" priority="5" stopIfTrue="1" operator="beginsWith" text="4">
       <formula>LEFT(G3,LEN("4"))="4"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="20" priority="5" stopIfTrue="1" operator="beginsWith" text="24">
+    <cfRule type="beginsWith" dxfId="47" priority="6" stopIfTrue="1" operator="beginsWith" text="24">
       <formula>LEFT(G3,LEN("24"))="24"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="19" priority="6" stopIfTrue="1" operator="beginsWith" text="27">
+    <cfRule type="beginsWith" dxfId="46" priority="7" stopIfTrue="1" operator="beginsWith" text="27">
       <formula>LEFT(G3,LEN("27"))="27"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="7" stopIfTrue="1" operator="beginsWith" text="3">
+    <cfRule type="beginsWith" dxfId="45" priority="8" stopIfTrue="1" operator="beginsWith" text="3">
       <formula>LEFT(G3,LEN("3"))="3"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="17" priority="8" stopIfTrue="1" operator="beginsWith" text="23">
+    <cfRule type="beginsWith" dxfId="44" priority="9" stopIfTrue="1" operator="beginsWith" text="23">
       <formula>LEFT(G3,LEN("23"))="23"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="9" stopIfTrue="1" operator="beginsWith" text="22">
+    <cfRule type="beginsWith" dxfId="43" priority="10" stopIfTrue="1" operator="beginsWith" text="22">
       <formula>LEFT(G3,LEN("22"))="22"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="15" priority="10" stopIfTrue="1" operator="beginsWith" text="21">
+    <cfRule type="beginsWith" dxfId="42" priority="11" stopIfTrue="1" operator="beginsWith" text="21">
       <formula>LEFT(G3,LEN("21"))="21"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="14" priority="11" stopIfTrue="1" operator="beginsWith" text="14">
+    <cfRule type="beginsWith" dxfId="41" priority="12" stopIfTrue="1" operator="beginsWith" text="14">
       <formula>LEFT(G3,LEN("14"))="14"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="12" stopIfTrue="1" operator="beginsWith" text="6">
+    <cfRule type="beginsWith" dxfId="40" priority="13" stopIfTrue="1" operator="beginsWith" text="6">
       <formula>LEFT(G3,LEN("6"))="6"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="13" stopIfTrue="1" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="39" priority="14" stopIfTrue="1" operator="beginsWith" text="5">
       <formula>LEFT(G3,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="11" priority="14" stopIfTrue="1" operator="beginsWith" text="4">
+    <cfRule type="beginsWith" dxfId="38" priority="15" stopIfTrue="1" operator="beginsWith" text="4">
       <formula>LEFT(G3,LEN("4"))="4"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="15" stopIfTrue="1" operator="beginsWith" text="24">
+    <cfRule type="beginsWith" dxfId="37" priority="16" stopIfTrue="1" operator="beginsWith" text="24">
       <formula>LEFT(G3,LEN("24"))="24"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="16" stopIfTrue="1" operator="beginsWith" text="27">
+    <cfRule type="beginsWith" dxfId="36" priority="17" stopIfTrue="1" operator="beginsWith" text="27">
       <formula>LEFT(G3,LEN("27"))="27"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="17" stopIfTrue="1" operator="beginsWith" text="3">
+    <cfRule type="beginsWith" dxfId="35" priority="18" stopIfTrue="1" operator="beginsWith" text="3">
       <formula>LEFT(G3,LEN("3"))="3"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="18" stopIfTrue="1" operator="beginsWith" text="23">
+    <cfRule type="beginsWith" dxfId="34" priority="19" stopIfTrue="1" operator="beginsWith" text="23">
       <formula>LEFT(G3,LEN("23"))="23"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="19" stopIfTrue="1" operator="beginsWith" text="22">
+    <cfRule type="beginsWith" dxfId="33" priority="20" stopIfTrue="1" operator="beginsWith" text="22">
       <formula>LEFT(G3,LEN("22"))="22"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="5" priority="20" stopIfTrue="1" operator="beginsWith" text="21">
+    <cfRule type="beginsWith" dxfId="32" priority="21" stopIfTrue="1" operator="beginsWith" text="21">
       <formula>LEFT(G3,LEN("21"))="21"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="31" priority="1" stopIfTrue="1" operator="beginsWith" text="29">
+      <formula>LEFT(G3,LEN("29"))="29"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1441,20 +1715,23 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G65536">
-    <cfRule type="beginsWith" dxfId="4" priority="1" stopIfTrue="1" operator="beginsWith" text="C">
+    <cfRule type="beginsWith" dxfId="10" priority="2" stopIfTrue="1" operator="beginsWith" text="C">
       <formula>LEFT(G3,LEN("C"))="C"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="2" stopIfTrue="1" operator="beginsWith" text="F">
+    <cfRule type="beginsWith" dxfId="9" priority="3" stopIfTrue="1" operator="beginsWith" text="F">
       <formula>LEFT(G3,LEN("F"))="F"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="beginsWith" text="PC">
+    <cfRule type="beginsWith" dxfId="8" priority="4" stopIfTrue="1" operator="beginsWith" text="PC">
       <formula>LEFT(G3,LEN("PC"))="PC"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="4" stopIfTrue="1" operator="beginsWith" text="SG">
+    <cfRule type="beginsWith" dxfId="7" priority="5" stopIfTrue="1" operator="beginsWith" text="SG">
       <formula>LEFT(G3,LEN("SG"))="SG"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="5" stopIfTrue="1" operator="beginsWith" text="LJ">
+    <cfRule type="beginsWith" dxfId="6" priority="6" stopIfTrue="1" operator="beginsWith" text="LJ">
       <formula>LEFT(G3,LEN("LJ"))="LJ"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="V">
+      <formula>LEFT(G3,LEN("V"))="V"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="1" gridLines="1"/>
